--- a/eureca_dhcs/test/input_tests/conditions_hydro_test.xlsx
+++ b/eureca_dhcs/test/input_tests/conditions_hydro_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34C02D-2389-4D52-8F7C-53BF9EBD1909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60218A14-4F19-4EEC-BD41-D1EF743C6180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14976" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydraulic" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Node</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Temperature [°C]</t>
+  </si>
+  <si>
+    <t>Pressure [Pa]</t>
   </si>
 </sst>
 </file>
@@ -362,14 +365,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8763"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -394,7 +398,9 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -419,7 +425,9 @@
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -442,6 +450,9 @@
         <v>500</v>
       </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>600</v>
       </c>
     </row>
@@ -468,6 +479,9 @@
       <c r="G4">
         <v>10</v>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -492,6 +506,9 @@
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -516,6 +533,9 @@
       <c r="G6">
         <v>10</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -26798,7 +26818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5227661-1F4F-4C60-9C9A-A070D4D4BCBF}">
   <dimension ref="A1:F8763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
